--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_17.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_17.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_0</t>
+          <t>model_1_17_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997167424505677</v>
+        <v>0.950335237975536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8238290314569952</v>
+        <v>0.7472188650860838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8155058937181567</v>
+        <v>0.7626476588885899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995402973211217</v>
+        <v>0.9555576129230764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001179067111591377</v>
+        <v>0.1741003488226124</v>
       </c>
       <c r="G2" t="n">
-        <v>1.178056077839794</v>
+        <v>1.690348613119458</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6599247205872263</v>
+        <v>0.8489955616760338</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002672017655430162</v>
+        <v>0.1421397056237721</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1355444794622175</v>
+        <v>1.308676104563564</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03433754667403274</v>
+        <v>0.4172533388992979</v>
       </c>
       <c r="L2" t="n">
-        <v>1.018128483163665</v>
+        <v>0.9323713878815809</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03487832870919504</v>
+        <v>0.4238246618866465</v>
       </c>
       <c r="N2" t="n">
-        <v>143.4860634731551</v>
+        <v>37.49624685726765</v>
       </c>
       <c r="O2" t="n">
-        <v>284.8212360163715</v>
+        <v>74.46083044549347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_1</t>
+          <t>model_1_17_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997225767411071</v>
+        <v>0.9503803458135034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.823728096047352</v>
+        <v>0.7471631519816219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8156172954565524</v>
+        <v>0.762422354655504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995348494902991</v>
+        <v>0.956101812666438</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001154781721463825</v>
+        <v>0.1739422228192926</v>
       </c>
       <c r="G3" t="n">
-        <v>1.178731033388843</v>
+        <v>1.690721166905531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6595262430284292</v>
+        <v>0.849801461853892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002703683122721351</v>
+        <v>0.1403991962495104</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1331545810480018</v>
+        <v>1.310682122577308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03398207941641926</v>
+        <v>0.4170638114477119</v>
       </c>
       <c r="L3" t="n">
-        <v>1.017755088569146</v>
+        <v>0.9324328113205153</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03451726319761104</v>
+        <v>0.4236321495671559</v>
       </c>
       <c r="N3" t="n">
-        <v>143.5276878772281</v>
+        <v>37.49806417534404</v>
       </c>
       <c r="O3" t="n">
-        <v>284.8628604204445</v>
+        <v>74.46264776356986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_3</t>
+          <t>model_1_17_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999623215998188</v>
+        <v>0.9503914476326212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8229446173778938</v>
+        <v>0.7471079400884898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8159811330785811</v>
+        <v>0.7623717464213142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991208889230333</v>
+        <v>0.9562760571594718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001568373466481775</v>
+        <v>0.1739033052748973</v>
       </c>
       <c r="G4" t="n">
-        <v>1.183970158859097</v>
+        <v>1.691090369089132</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6582248169509499</v>
+        <v>0.8499824845731547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005109825168892041</v>
+        <v>0.1398419115810809</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1284282852394929</v>
+        <v>1.311345502113041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03960269519214285</v>
+        <v>0.4170171522550329</v>
       </c>
       <c r="L4" t="n">
-        <v>1.024114176115965</v>
+        <v>0.9324479286912288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04022639805324781</v>
+        <v>0.4235847555388343</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9154324105202</v>
+        <v>37.49851170209272</v>
       </c>
       <c r="O4" t="n">
-        <v>284.2506049537366</v>
+        <v>74.46309529031853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_2</t>
+          <t>model_1_17_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996164480980432</v>
+        <v>0.9504023079589787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8228717054648828</v>
+        <v>0.747051941734781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8160731130121661</v>
+        <v>0.7623215411896034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991050653879477</v>
+        <v>0.956451296403849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001596545031516018</v>
+        <v>0.1738652342859282</v>
       </c>
       <c r="G5" t="n">
-        <v>1.184457721157131</v>
+        <v>1.691464830338232</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6578958100618193</v>
+        <v>0.8501620657759176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005201799323193863</v>
+        <v>0.1392814454079568</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1302914600580578</v>
+        <v>1.311998710508929</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0399567895546679</v>
+        <v>0.4169715029662437</v>
       </c>
       <c r="L5" t="n">
-        <v>1.024547321725237</v>
+        <v>0.932462717220737</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04058606904801813</v>
+        <v>0.4235383873193793</v>
       </c>
       <c r="N5" t="n">
-        <v>142.8798266796164</v>
+        <v>37.49894959091578</v>
       </c>
       <c r="O5" t="n">
-        <v>284.2149992228328</v>
+        <v>74.46353317914159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_4</t>
+          <t>model_1_17_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995314687826236</v>
+        <v>0.9504729037864755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8224206082795514</v>
+        <v>0.7466448617592166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8161863776243733</v>
+        <v>0.7619591270030522</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987539395817642</v>
+        <v>0.9577049498646186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001950273700629211</v>
+        <v>0.1736177598656026</v>
       </c>
       <c r="G6" t="n">
-        <v>1.187474210112553</v>
+        <v>1.694186976009261</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6574906691114139</v>
+        <v>0.8514584003072293</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007242714889944647</v>
+        <v>0.1352718962908135</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1258807655494317</v>
+        <v>1.316802181010762</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04416190327226863</v>
+        <v>0.4166746450956701</v>
       </c>
       <c r="L6" t="n">
-        <v>1.029985997912092</v>
+        <v>0.9325588477092432</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04485740910309953</v>
+        <v>0.4232368542340931</v>
       </c>
       <c r="N6" t="n">
-        <v>142.4795711139178</v>
+        <v>37.50179835723047</v>
       </c>
       <c r="O6" t="n">
-        <v>283.8147436571342</v>
+        <v>74.46638194545629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_5</t>
+          <t>model_1_17_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995343182749665</v>
+        <v>0.9506666973793491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8222935681439707</v>
+        <v>0.7461228596707989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8160261955047043</v>
+        <v>0.7605594328044742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.998756914006532</v>
+        <v>0.96137387970775</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0019384126126791</v>
+        <v>0.1729384143750869</v>
       </c>
       <c r="G7" t="n">
-        <v>1.188323728084147</v>
+        <v>1.697677606378109</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6580636312655764</v>
+        <v>0.8564650252966102</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007225426072933882</v>
+        <v>0.1235375894239406</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1245099523876405</v>
+        <v>1.330714622512556</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04402740751712619</v>
+        <v>0.4158586471087104</v>
       </c>
       <c r="L7" t="n">
-        <v>1.029803630402142</v>
+        <v>0.9328227368569859</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04472079517426003</v>
+        <v>0.4224080050945375</v>
       </c>
       <c r="N7" t="n">
-        <v>142.4917717634715</v>
+        <v>37.50963946826737</v>
       </c>
       <c r="O7" t="n">
-        <v>283.8269443066879</v>
+        <v>74.47422305649319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_6</t>
+          <t>model_1_17_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995218326021609</v>
+        <v>0.9506772705926404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8217767380888099</v>
+        <v>0.7458554775608879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8155727788065326</v>
+        <v>0.7603009190649049</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9986707250253329</v>
+        <v>0.9621841669350109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001990384559060426</v>
+        <v>0.1729013498640095</v>
       </c>
       <c r="G8" t="n">
-        <v>1.191779773042791</v>
+        <v>1.699465591778266</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6596854765043264</v>
+        <v>0.8573897139535614</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007726398745160442</v>
+        <v>0.1209460547308511</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1207315298271307</v>
+        <v>1.334218599310134</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0446137261284061</v>
+        <v>0.415814080887131</v>
       </c>
       <c r="L8" t="n">
-        <v>1.030602713461704</v>
+        <v>0.9328371344240209</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04531634771756402</v>
+        <v>0.4223627369995181</v>
       </c>
       <c r="N8" t="n">
-        <v>142.4388548263126</v>
+        <v>37.51006815825681</v>
       </c>
       <c r="O8" t="n">
-        <v>283.774027369529</v>
+        <v>74.47465174648262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_8</t>
+          <t>model_1_17_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995046419436699</v>
+        <v>0.9506981736708153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8215501510726617</v>
+        <v>0.7458148570088823</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8158138628581217</v>
+        <v>0.7599774616038799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985535466449642</v>
+        <v>0.9628529892893209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002061941133964788</v>
+        <v>0.172828073902274</v>
       </c>
       <c r="G9" t="n">
-        <v>1.193294961463111</v>
+        <v>1.699737221596568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6588231328306482</v>
+        <v>0.8585467025365068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008407497019253873</v>
+        <v>0.1188069659282696</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1148803308443</v>
+        <v>1.337140331006832</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04540860198205609</v>
+        <v>0.415725960101452</v>
       </c>
       <c r="L9" t="n">
-        <v>1.031702915605123</v>
+        <v>0.9328655981900464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04612374207132465</v>
+        <v>0.4222732283995531</v>
       </c>
       <c r="N9" t="n">
-        <v>142.3682148836472</v>
+        <v>37.51091594219182</v>
       </c>
       <c r="O9" t="n">
-        <v>283.7033874268636</v>
+        <v>74.47549953041764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_7</t>
+          <t>model_1_17_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995001113938291</v>
+        <v>0.9506985318290313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8215184942627743</v>
+        <v>0.7457507280890077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8157655092139722</v>
+        <v>0.7599038986598272</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985577786616583</v>
+        <v>0.9630613226932554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002080799668628763</v>
+        <v>0.1728268183748579</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193506650696594</v>
+        <v>1.700166051979055</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6589960910120659</v>
+        <v>0.8588098329219589</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008382898460567487</v>
+        <v>0.1181406549883196</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1180608438874063</v>
+        <v>1.338101349988263</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04561578310879649</v>
+        <v>0.4157244500565944</v>
       </c>
       <c r="L10" t="n">
-        <v>1.031992870794937</v>
+        <v>0.9328660858948511</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04633418609370606</v>
+        <v>0.4222716945729986</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3500060061634</v>
+        <v>37.51093047145143</v>
       </c>
       <c r="O10" t="n">
-        <v>283.6851785493798</v>
+        <v>74.47551405967725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_9</t>
+          <t>model_1_17_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990837053138278</v>
+        <v>0.9506820650007513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8205661526061518</v>
+        <v>0.7452559404170372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8159709715242491</v>
+        <v>0.7594056780773311</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9969950528797158</v>
+        <v>0.9645430667411133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003814101093357384</v>
+        <v>0.1728845430156432</v>
       </c>
       <c r="G11" t="n">
-        <v>1.199874963739559</v>
+        <v>1.70347469941981</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6582611642415943</v>
+        <v>0.8605919390570586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01746622790762537</v>
+        <v>0.1134016057017059</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1133411514899254</v>
+        <v>1.347907853187184</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06175840909023956</v>
+        <v>0.4157938708250077</v>
       </c>
       <c r="L11" t="n">
-        <v>1.058642859915018</v>
+        <v>0.9328436629797464</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06273104229765103</v>
+        <v>0.422342208649119</v>
       </c>
       <c r="N11" t="n">
-        <v>141.1381005325865</v>
+        <v>37.51026257738987</v>
       </c>
       <c r="O11" t="n">
-        <v>282.4732730758029</v>
+        <v>74.47484616561569</v>
       </c>
     </row>
   </sheetData>
